--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.003643333333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N2">
-        <v>0.01093</v>
+        <v>0.027103</v>
       </c>
       <c r="O2">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P2">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q2">
-        <v>0.07219382072444444</v>
+        <v>0.2975864077761111</v>
       </c>
       <c r="R2">
-        <v>0.6497443865200001</v>
+        <v>2.678277669985</v>
       </c>
       <c r="S2">
-        <v>5.878251351826311E-05</v>
+        <v>0.0005214067123926609</v>
       </c>
       <c r="T2">
-        <v>5.878251351826311E-05</v>
+        <v>0.0005214067123926609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2626486666666666</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N3">
-        <v>0.7879459999999999</v>
+        <v>0.552325</v>
       </c>
       <c r="O3">
-        <v>0.1730426339947982</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P3">
-        <v>0.1730426339947983</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q3">
-        <v>5.204467727771555</v>
+        <v>6.06443613898611</v>
       </c>
       <c r="R3">
-        <v>46.840209549944</v>
+        <v>54.57992525087499</v>
       </c>
       <c r="S3">
-        <v>0.004237643769136444</v>
+        <v>0.01062561201425216</v>
       </c>
       <c r="T3">
-        <v>0.004237643769136445</v>
+        <v>0.01062561201425216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5169776666666667</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N4">
-        <v>1.550933</v>
+        <v>0.271372</v>
       </c>
       <c r="O4">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P4">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q4">
-        <v>10.24407858715689</v>
+        <v>2.979619180571111</v>
       </c>
       <c r="R4">
-        <v>92.196707284412</v>
+        <v>26.81657262514</v>
       </c>
       <c r="S4">
-        <v>0.008341055813213207</v>
+        <v>0.005220646509811504</v>
       </c>
       <c r="T4">
-        <v>0.008341055813213207</v>
+        <v>0.005220646509811504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03064833333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N5">
-        <v>0.091945</v>
+        <v>0.486052</v>
       </c>
       <c r="O5">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P5">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q5">
-        <v>0.6073065733311112</v>
+        <v>5.336769681304444</v>
       </c>
       <c r="R5">
-        <v>5.46575915998</v>
+        <v>48.03092713174</v>
       </c>
       <c r="S5">
-        <v>0.0004944883993995152</v>
+        <v>0.009350654000364448</v>
       </c>
       <c r="T5">
-        <v>0.0004944883993995153</v>
+        <v>0.009350654000364448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>1590.898651</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7039083333333332</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N6">
-        <v>2.111725</v>
+        <v>0.027103</v>
       </c>
       <c r="O6">
-        <v>0.4637607859836402</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P6">
-        <v>0.4637607859836402</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q6">
-        <v>13.94816981421111</v>
+        <v>4.790902904228111</v>
       </c>
       <c r="R6">
-        <v>125.5335283279</v>
+        <v>43.118126138053</v>
       </c>
       <c r="S6">
-        <v>0.01135704513809279</v>
+        <v>0.00839423060802362</v>
       </c>
       <c r="T6">
-        <v>0.01135704513809279</v>
+        <v>0.00839423060802362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.003643333333333333</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N7">
-        <v>0.01093</v>
+        <v>0.552325</v>
       </c>
       <c r="O7">
-        <v>0.002400362448141301</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P7">
-        <v>0.002400362448141301</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q7">
-        <v>1.932058028381111</v>
+        <v>97.63256637928609</v>
       </c>
       <c r="R7">
-        <v>17.38852225543</v>
+        <v>878.6930974135749</v>
       </c>
       <c r="S7">
-        <v>0.001573143324895766</v>
+        <v>0.171063846089977</v>
       </c>
       <c r="T7">
-        <v>0.001573143324895766</v>
+        <v>0.171063846089977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2626486666666666</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N8">
-        <v>0.7879459999999999</v>
+        <v>0.271372</v>
       </c>
       <c r="O8">
-        <v>0.1730426339947982</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P8">
-        <v>0.1730426339947983</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q8">
-        <v>139.2824698289829</v>
+        <v>47.96948319101911</v>
       </c>
       <c r="R8">
-        <v>1253.542228460846</v>
+        <v>431.725348719172</v>
       </c>
       <c r="S8">
-        <v>0.1134082333283</v>
+        <v>0.08404822892523287</v>
       </c>
       <c r="T8">
-        <v>0.1134082333283</v>
+        <v>0.08404822892523287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5169776666666667</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N9">
-        <v>1.550933</v>
+        <v>0.486052</v>
       </c>
       <c r="O9">
-        <v>0.3406039645730221</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P9">
-        <v>0.3406039645730221</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q9">
-        <v>274.1530241657092</v>
+        <v>85.91771901287242</v>
       </c>
       <c r="R9">
-        <v>2467.377217491383</v>
+        <v>773.259471115852</v>
       </c>
       <c r="S9">
-        <v>0.223224144218716</v>
+        <v>0.150538042854706</v>
       </c>
       <c r="T9">
-        <v>0.223224144218716</v>
+        <v>0.150538042854706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>530.2995503333333</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H10">
-        <v>1590.898651</v>
+        <v>1266.542389</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,33 +1057,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03064833333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N10">
-        <v>0.091945</v>
+        <v>0.027103</v>
       </c>
       <c r="O10">
-        <v>0.02019225300039816</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P10">
-        <v>0.02019225300039816</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q10">
-        <v>16.25279738513278</v>
+        <v>3.814122041007444</v>
       </c>
       <c r="R10">
-        <v>146.275176466195</v>
+        <v>34.327098369067</v>
       </c>
       <c r="S10">
-        <v>0.01323354647827459</v>
+        <v>0.006682794583690398</v>
       </c>
       <c r="T10">
-        <v>0.01323354647827459</v>
+        <v>0.006682794583690397</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>530.2995503333333</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H11">
-        <v>1590.898651</v>
+        <v>1266.542389</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7039083333333332</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N11">
-        <v>2.111725</v>
+        <v>0.552325</v>
       </c>
       <c r="O11">
-        <v>0.4637607859836402</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P11">
-        <v>0.4637607859836402</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q11">
-        <v>373.2822726425527</v>
+        <v>77.72700277826944</v>
       </c>
       <c r="R11">
-        <v>3359.540453782975</v>
+        <v>699.543025004425</v>
       </c>
       <c r="S11">
-        <v>0.3039383428879699</v>
+        <v>0.1361869357058923</v>
       </c>
       <c r="T11">
-        <v>0.30393834288797</v>
+        <v>0.1361869357058923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H12">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I12">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J12">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.003643333333333333</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N12">
-        <v>0.01093</v>
+        <v>0.271372</v>
       </c>
       <c r="O12">
-        <v>0.002400362448141301</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P12">
-        <v>0.002400362448141301</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q12">
-        <v>0.4159053166022223</v>
+        <v>38.18934902085644</v>
       </c>
       <c r="R12">
-        <v>3.743147849420001</v>
+        <v>343.704141187708</v>
       </c>
       <c r="S12">
-        <v>0.0003386433859596196</v>
+        <v>0.06691227287625838</v>
       </c>
       <c r="T12">
-        <v>0.0003386433859596196</v>
+        <v>0.06691227287625837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H13">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I13">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J13">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,43 +1243,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2626486666666666</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N13">
-        <v>0.7879459999999999</v>
+        <v>0.486052</v>
       </c>
       <c r="O13">
-        <v>0.1730426339947982</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P13">
-        <v>0.1730426339947983</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q13">
-        <v>29.98270179281378</v>
+        <v>68.40060680646977</v>
       </c>
       <c r="R13">
-        <v>269.844316135324</v>
+        <v>615.6054612582279</v>
       </c>
       <c r="S13">
-        <v>0.02441287295455978</v>
+        <v>0.1198459828429283</v>
       </c>
       <c r="T13">
-        <v>0.02441287295455978</v>
+        <v>0.1198459828429283</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>16.509264</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>49.527792</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.5169776666666667</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N14">
-        <v>1.550933</v>
+        <v>0.027103</v>
       </c>
       <c r="O14">
-        <v>0.3406039645730221</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P14">
-        <v>0.3406039645730221</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q14">
-        <v>59.01567066732245</v>
+        <v>0.149150194064</v>
       </c>
       <c r="R14">
-        <v>531.141036005902</v>
+        <v>1.342351746576</v>
       </c>
       <c r="S14">
-        <v>0.04805244304817115</v>
+        <v>0.0002613288453622728</v>
       </c>
       <c r="T14">
-        <v>0.04805244304817115</v>
+        <v>0.0002613288453622728</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>16.509264</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>49.527792</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.03064833333333333</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N15">
-        <v>0.091945</v>
+        <v>0.552325</v>
       </c>
       <c r="O15">
-        <v>0.02019225300039816</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P15">
-        <v>0.02019225300039816</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q15">
-        <v>3.498665538425556</v>
+        <v>3.039493079599999</v>
       </c>
       <c r="R15">
-        <v>31.48798984583</v>
+        <v>27.3554377164</v>
       </c>
       <c r="S15">
-        <v>0.002848725171276965</v>
+        <v>0.005325552688437343</v>
       </c>
       <c r="T15">
-        <v>0.002848725171276965</v>
+        <v>0.005325552688437343</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>16.509264</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>49.527792</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.7039083333333332</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N16">
-        <v>2.111725</v>
+        <v>0.271372</v>
       </c>
       <c r="O16">
-        <v>0.4637607859836402</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P16">
-        <v>0.4637607859836402</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q16">
-        <v>80.35477170190555</v>
+        <v>1.493383996736</v>
       </c>
       <c r="R16">
-        <v>723.19294531715</v>
+        <v>13.440455970624</v>
       </c>
       <c r="S16">
-        <v>0.06542742033079393</v>
+        <v>0.002616586039318552</v>
       </c>
       <c r="T16">
-        <v>0.06542742033079393</v>
+        <v>0.002616586039318552</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H17">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I17">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J17">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.003643333333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N17">
-        <v>0.01093</v>
+        <v>0.486052</v>
       </c>
       <c r="O17">
-        <v>0.002400362448141301</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P17">
-        <v>0.002400362448141301</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q17">
-        <v>0.20523153886</v>
+        <v>2.674786928575999</v>
       </c>
       <c r="R17">
-        <v>1.84708384974</v>
+        <v>24.073082357184</v>
       </c>
       <c r="S17">
-        <v>0.0001671060706630127</v>
+        <v>0.004686544218205491</v>
       </c>
       <c r="T17">
-        <v>0.0001671060706630128</v>
+        <v>0.004686544218205492</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.330706</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H18">
-        <v>168.992118</v>
+        <v>133.862825</v>
       </c>
       <c r="I18">
-        <v>0.06961701587708551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J18">
-        <v>0.06961701587708552</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.2626486666666666</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N18">
-        <v>0.7879459999999999</v>
+        <v>0.027103</v>
       </c>
       <c r="O18">
-        <v>0.1730426339947982</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P18">
-        <v>0.1730426339947983</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q18">
-        <v>14.795184823292</v>
+        <v>0.4031204606638888</v>
       </c>
       <c r="R18">
-        <v>133.156663409628</v>
+        <v>3.628084145975</v>
       </c>
       <c r="S18">
-        <v>0.01204671179822856</v>
+        <v>0.0007063149008173429</v>
       </c>
       <c r="T18">
-        <v>0.01204671179822857</v>
+        <v>0.0007063149008173429</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.330706</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H19">
-        <v>168.992118</v>
+        <v>133.862825</v>
       </c>
       <c r="I19">
-        <v>0.06961701587708551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J19">
-        <v>0.06961701587708552</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5169776666666667</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N19">
-        <v>1.550933</v>
+        <v>0.552325</v>
       </c>
       <c r="O19">
-        <v>0.3406039645730221</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P19">
-        <v>0.3406039645730221</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q19">
-        <v>29.121716949566</v>
+        <v>8.215087202013887</v>
       </c>
       <c r="R19">
-        <v>262.095452546094</v>
+        <v>73.93578481812499</v>
       </c>
       <c r="S19">
-        <v>0.02371183160947835</v>
+        <v>0.01439380797675309</v>
       </c>
       <c r="T19">
-        <v>0.02371183160947836</v>
+        <v>0.01439380797675309</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>133.862825</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,33 +1677,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.03064833333333333</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N20">
-        <v>0.091945</v>
+        <v>0.271372</v>
       </c>
       <c r="O20">
-        <v>0.02019225300039816</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P20">
-        <v>0.02019225300039816</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q20">
-        <v>1.72644225439</v>
+        <v>4.036291393988888</v>
       </c>
       <c r="R20">
-        <v>15.53798028951</v>
+        <v>36.32662254589999</v>
       </c>
       <c r="S20">
-        <v>0.001405724397722846</v>
+        <v>0.007072061663454378</v>
       </c>
       <c r="T20">
-        <v>0.001405724397722847</v>
+        <v>0.007072061663454378</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>133.862825</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.7039083333333332</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N21">
-        <v>2.111725</v>
+        <v>0.486052</v>
       </c>
       <c r="O21">
-        <v>0.4637607859836402</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P21">
-        <v>0.4637607859836402</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q21">
-        <v>39.65165337595</v>
+        <v>7.229365979655554</v>
       </c>
       <c r="R21">
-        <v>356.86488038355</v>
+        <v>65.06429381689999</v>
       </c>
       <c r="S21">
-        <v>0.03228564200099273</v>
+        <v>0.01266670738191607</v>
       </c>
       <c r="T21">
-        <v>0.03228564200099274</v>
+        <v>0.01266670738191607</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.22062233333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H22">
-        <v>138.661867</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I22">
-        <v>0.05712234103418551</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J22">
-        <v>0.05712234103418551</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,33 +1801,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.003643333333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N22">
-        <v>0.01093</v>
+        <v>0.027103</v>
       </c>
       <c r="O22">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P22">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q22">
-        <v>0.1683971340344445</v>
+        <v>2.116107722804666</v>
       </c>
       <c r="R22">
-        <v>1.51557420631</v>
+        <v>19.044969505242</v>
       </c>
       <c r="S22">
-        <v>0.0001371143223683798</v>
+        <v>0.003707671929849726</v>
       </c>
       <c r="T22">
-        <v>0.0001371143223683798</v>
+        <v>0.003707671929849726</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.22062233333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H23">
-        <v>138.661867</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I23">
-        <v>0.05712234103418551</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J23">
-        <v>0.05712234103418551</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2626486666666666</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N23">
-        <v>0.7879459999999999</v>
+        <v>0.552325</v>
       </c>
       <c r="O23">
-        <v>0.1730426339947982</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P23">
-        <v>0.1730426339947983</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q23">
-        <v>12.13978482835355</v>
+        <v>43.12360985861665</v>
       </c>
       <c r="R23">
-        <v>109.258063455182</v>
+        <v>388.1124887275499</v>
       </c>
       <c r="S23">
-        <v>0.009884600352504607</v>
+        <v>0.07555768360160313</v>
       </c>
       <c r="T23">
-        <v>0.009884600352504609</v>
+        <v>0.07555768360160313</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.22062233333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H24">
-        <v>138.661867</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I24">
-        <v>0.05712234103418551</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J24">
-        <v>0.05712234103418551</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.5169776666666667</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N24">
-        <v>1.550933</v>
+        <v>0.271372</v>
       </c>
       <c r="O24">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P24">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q24">
-        <v>23.89502948576789</v>
+        <v>21.18777939537866</v>
       </c>
       <c r="R24">
-        <v>215.055265371911</v>
+        <v>190.690014558408</v>
       </c>
       <c r="S24">
-        <v>0.01945609582193581</v>
+        <v>0.03712350466543113</v>
       </c>
       <c r="T24">
-        <v>0.01945609582193581</v>
+        <v>0.03712350466543113</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,418 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.22062233333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H25">
-        <v>138.661867</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I25">
-        <v>0.05712234103418551</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J25">
-        <v>0.05712234103418551</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.03064833333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N25">
-        <v>0.091945</v>
+        <v>0.486052</v>
       </c>
       <c r="O25">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P25">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q25">
-        <v>1.416585040146111</v>
+        <v>37.94924513465866</v>
       </c>
       <c r="R25">
-        <v>12.749265361315</v>
+        <v>341.543206211928</v>
       </c>
       <c r="S25">
-        <v>0.001153428762137299</v>
+        <v>0.06649158236532188</v>
       </c>
       <c r="T25">
-        <v>0.001153428762137299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>46.22062233333333</v>
-      </c>
-      <c r="H26">
-        <v>138.661867</v>
-      </c>
-      <c r="I26">
-        <v>0.05712234103418551</v>
-      </c>
-      <c r="J26">
-        <v>0.05712234103418551</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.7039083333333332</v>
-      </c>
-      <c r="N26">
-        <v>2.111725</v>
-      </c>
-      <c r="O26">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="P26">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="Q26">
-        <v>32.5350812322861</v>
-      </c>
-      <c r="R26">
-        <v>292.815731090575</v>
-      </c>
-      <c r="S26">
-        <v>0.02649110177523941</v>
-      </c>
-      <c r="T26">
-        <v>0.02649110177523942</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>42.33003733333333</v>
-      </c>
-      <c r="H27">
-        <v>126.990112</v>
-      </c>
-      <c r="I27">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="J27">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M27">
-        <v>0.003643333333333333</v>
-      </c>
-      <c r="N27">
-        <v>0.01093</v>
-      </c>
-      <c r="O27">
-        <v>0.002400362448141301</v>
-      </c>
-      <c r="P27">
-        <v>0.002400362448141301</v>
-      </c>
-      <c r="Q27">
-        <v>0.1542224360177778</v>
-      </c>
-      <c r="R27">
-        <v>1.38800192416</v>
-      </c>
-      <c r="S27">
-        <v>0.000125572830736259</v>
-      </c>
-      <c r="T27">
-        <v>0.000125572830736259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>42.33003733333333</v>
-      </c>
-      <c r="H28">
-        <v>126.990112</v>
-      </c>
-      <c r="I28">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="J28">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.2626486666666666</v>
-      </c>
-      <c r="N28">
-        <v>0.7879459999999999</v>
-      </c>
-      <c r="O28">
-        <v>0.1730426339947982</v>
-      </c>
-      <c r="P28">
-        <v>0.1730426339947983</v>
-      </c>
-      <c r="Q28">
-        <v>11.11792786555022</v>
-      </c>
-      <c r="R28">
-        <v>100.061350789952</v>
-      </c>
-      <c r="S28">
-        <v>0.00905257179206883</v>
-      </c>
-      <c r="T28">
-        <v>0.00905257179206883</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>42.33003733333333</v>
-      </c>
-      <c r="H29">
-        <v>126.990112</v>
-      </c>
-      <c r="I29">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="J29">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.5169776666666667</v>
-      </c>
-      <c r="N29">
-        <v>1.550933</v>
-      </c>
-      <c r="O29">
-        <v>0.3406039645730221</v>
-      </c>
-      <c r="P29">
-        <v>0.3406039645730221</v>
-      </c>
-      <c r="Q29">
-        <v>21.88368393049955</v>
-      </c>
-      <c r="R29">
-        <v>196.953155374496</v>
-      </c>
-      <c r="S29">
-        <v>0.01781839406150763</v>
-      </c>
-      <c r="T29">
-        <v>0.01781839406150763</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>42.33003733333333</v>
-      </c>
-      <c r="H30">
-        <v>126.990112</v>
-      </c>
-      <c r="I30">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="J30">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.03064833333333333</v>
-      </c>
-      <c r="N30">
-        <v>0.091945</v>
-      </c>
-      <c r="O30">
-        <v>0.02019225300039816</v>
-      </c>
-      <c r="P30">
-        <v>0.02019225300039816</v>
-      </c>
-      <c r="Q30">
-        <v>1.297345094204444</v>
-      </c>
-      <c r="R30">
-        <v>11.67610584784</v>
-      </c>
-      <c r="S30">
-        <v>0.001056339791586947</v>
-      </c>
-      <c r="T30">
-        <v>0.001056339791586947</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>42.33003733333333</v>
-      </c>
-      <c r="H31">
-        <v>126.990112</v>
-      </c>
-      <c r="I31">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="J31">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.7039083333333332</v>
-      </c>
-      <c r="N31">
-        <v>2.111725</v>
-      </c>
-      <c r="O31">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="P31">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="Q31">
-        <v>29.79646602924444</v>
-      </c>
-      <c r="R31">
-        <v>268.1681942632</v>
-      </c>
-      <c r="S31">
-        <v>0.02426123385055137</v>
-      </c>
-      <c r="T31">
-        <v>0.02426123385055137</v>
+        <v>0.06649158236532189</v>
       </c>
     </row>
   </sheetData>
